--- a/Old Order Summary Acc/West Knit 2021/West knitt.xlsx
+++ b/Old Order Summary Acc/West Knit 2021/West knitt.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="342">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -1040,6 +1040,9 @@
   </si>
   <si>
     <t>07.09.21</t>
+  </si>
+  <si>
+    <t>13.09.21</t>
   </si>
 </sst>
 </file>
@@ -1524,8 +1527,8 @@
   <dimension ref="A1:Q525"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <pane ySplit="6" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M465" sqref="M465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15216,10 +15219,18 @@
       <c r="G464" s="3"/>
       <c r="H464" s="6"/>
       <c r="I464" s="7"/>
-      <c r="J464" s="6"/>
-      <c r="K464" s="6"/>
-      <c r="L464" s="6"/>
-      <c r="M464" s="7"/>
+      <c r="J464" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="K464" s="6">
+        <v>1705</v>
+      </c>
+      <c r="L464" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="M464" s="7">
+        <v>6</v>
+      </c>
       <c r="N464" s="9"/>
       <c r="O464" s="13"/>
       <c r="P464" s="3"/>
@@ -15278,7 +15289,7 @@
       <c r="L467" s="10"/>
       <c r="M467" s="9">
         <f>SUBTOTAL(9,M463:M466)</f>
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="N467" s="9">
         <f>SUBTOTAL(9,N463:N466)</f>
@@ -15286,7 +15297,7 @@
       </c>
       <c r="O467" s="13">
         <f>M467-I467+N467</f>
-        <v>-811</v>
+        <v>-805</v>
       </c>
       <c r="P467" s="3"/>
     </row>
@@ -15529,7 +15540,7 @@
       <c r="L479" s="10"/>
       <c r="M479" s="9">
         <f>+M472+M467+M462+M456+M450+M444+M438+M432+M422+M418+M414+M410+M399+M393+M389+M381+M377+M371+M361+M366+M352+M347+M341+M336+M331+M328+M322+M318+M315+M309+M306+M287+M295+M276+M281+M271+M262+M259+M255+M251+M241+M236+M230+M226+M219+M214+M210+M206+M197+M192+M184+M172+M167+M164+M160+M154+M147+M140+M135+M130+M124+M119+M113+M108+M103+M96+M87+M82+M76+M72+M67+M56+M51+M47+M40+M34+M26+M19+M12</f>
-        <v>155279.15000000002</v>
+        <v>155285.15000000002</v>
       </c>
       <c r="N479" s="9">
         <f>+N472+N467+N462+N456+N450+N444+N438+N432+N422+N418+N414+N410+N399+N393+N389+N381+N377+N371+N361+N366+N352+N347+N341+N336+N331+N328+N322+N318+N315+N309+N306+N287+N295+N276+N281+N271+N262+N259+N255+N251+N241+N236+N230+N226+N219+N214+N210+N206+N197+N192+N184+N172+N167+N164+N160+N154+N147+N140+N135+N130+N124+N119+N113+N108+N103+N96+N87+N82+N76+N72+N67+N56+N51+N47+N40+N34+N26+N19+N12</f>
@@ -15537,7 +15548,7 @@
       </c>
       <c r="O479" s="21">
         <f>SUM(O7:O478)</f>
-        <v>-4986.2300000000014</v>
+        <v>-4980.2300000000014</v>
       </c>
       <c r="P479" s="3"/>
     </row>

--- a/Old Order Summary Acc/West Knit 2021/West knitt.xlsx
+++ b/Old Order Summary Acc/West Knit 2021/West knitt.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="343">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t>13.09.21</t>
+  </si>
+  <si>
+    <t>21.09.21</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1530,8 @@
   <dimension ref="A1:Q525"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M465" sqref="M465"/>
+      <pane ySplit="6" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C460" sqref="C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15245,10 +15248,18 @@
       <c r="G465" s="3"/>
       <c r="H465" s="6"/>
       <c r="I465" s="7"/>
-      <c r="J465" s="6"/>
-      <c r="K465" s="6"/>
-      <c r="L465" s="6"/>
-      <c r="M465" s="7"/>
+      <c r="J465" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="K465" s="6">
+        <v>1748</v>
+      </c>
+      <c r="L465" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="M465" s="7">
+        <v>848</v>
+      </c>
       <c r="N465" s="9"/>
       <c r="O465" s="13"/>
       <c r="P465" s="3"/>
@@ -15289,15 +15300,15 @@
       <c r="L467" s="10"/>
       <c r="M467" s="9">
         <f>SUBTOTAL(9,M463:M466)</f>
-        <v>495</v>
+        <v>1343</v>
       </c>
       <c r="N467" s="9">
         <f>SUBTOTAL(9,N463:N466)</f>
         <v>0</v>
       </c>
-      <c r="O467" s="13">
+      <c r="O467" s="24">
         <f>M467-I467+N467</f>
-        <v>-805</v>
+        <v>43</v>
       </c>
       <c r="P467" s="3"/>
     </row>
@@ -15540,7 +15551,7 @@
       <c r="L479" s="10"/>
       <c r="M479" s="9">
         <f>+M472+M467+M462+M456+M450+M444+M438+M432+M422+M418+M414+M410+M399+M393+M389+M381+M377+M371+M361+M366+M352+M347+M341+M336+M331+M328+M322+M318+M315+M309+M306+M287+M295+M276+M281+M271+M262+M259+M255+M251+M241+M236+M230+M226+M219+M214+M210+M206+M197+M192+M184+M172+M167+M164+M160+M154+M147+M140+M135+M130+M124+M119+M113+M108+M103+M96+M87+M82+M76+M72+M67+M56+M51+M47+M40+M34+M26+M19+M12</f>
-        <v>155285.15000000002</v>
+        <v>156133.15000000002</v>
       </c>
       <c r="N479" s="9">
         <f>+N472+N467+N462+N456+N450+N444+N438+N432+N422+N418+N414+N410+N399+N393+N389+N381+N377+N371+N361+N366+N352+N347+N341+N336+N331+N328+N322+N318+N315+N309+N306+N287+N295+N276+N281+N271+N262+N259+N255+N251+N241+N236+N230+N226+N219+N214+N210+N206+N197+N192+N184+N172+N167+N164+N160+N154+N147+N140+N135+N130+N124+N119+N113+N108+N103+N96+N87+N82+N76+N72+N67+N56+N51+N47+N40+N34+N26+N19+N12</f>
@@ -15548,7 +15559,7 @@
       </c>
       <c r="O479" s="21">
         <f>SUM(O7:O478)</f>
-        <v>-4980.2300000000014</v>
+        <v>-4132.2300000000014</v>
       </c>
       <c r="P479" s="3"/>
     </row>

--- a/Old Order Summary Acc/West Knit 2021/West knitt.xlsx
+++ b/Old Order Summary Acc/West Knit 2021/West knitt.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Store Documents\2021\Old Order Summary Acc\West Knit 2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="735" windowWidth="20115" windowHeight="7335"/>
   </bookViews>
   <sheets>
-    <sheet name="West Knit" sheetId="1" r:id="rId1"/>
+    <sheet name="West Knit (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="West Knit" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'West Knit'!$B$6:$O$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'West Knit'!$B$6:$O$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'West Knit (2)'!$B$6:$K$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="344">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -1046,6 +1053,9 @@
   </si>
   <si>
     <t>21.09.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Statement</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1067,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,6 +1117,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1150,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1224,6 +1240,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1234,6 +1253,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1282,7 +1304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1317,7 +1339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1526,12 +1548,2998 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="6">
+        <v>69</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="7">
+        <v>641</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="6">
+        <v>80</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="7">
+        <v>313</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="6">
+        <v>87</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="7">
+        <v>335</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2030</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3150</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="6">
+        <v>211</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="7">
+        <v>136</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="6">
+        <v>253</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="7">
+        <v>18</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="6">
+        <v>270</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2090</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="6">
+        <v>483</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="7">
+        <v>454</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="9">
+        <f>SUM(E11:E15)</f>
+        <v>3150</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9">
+        <f>SUM(I11:I15)</f>
+        <v>2698</v>
+      </c>
+      <c r="J16" s="9">
+        <f>SUM(J11:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
+        <f>I16-E16+J16</f>
+        <v>-452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2102</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="6">
+        <v>420</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="7">
+        <v>569</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2102</v>
+      </c>
+      <c r="E18" s="7">
+        <v>132</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="6">
+        <v>421</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="7">
+        <v>600</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="6">
+        <v>440</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="7">
+        <v>384</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="6">
+        <v>483</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="7">
+        <v>476</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="9">
+        <f>SUM(E17:E21)</f>
+        <v>2132</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9">
+        <f>SUM(I17:I21)</f>
+        <v>2029</v>
+      </c>
+      <c r="J22" s="9">
+        <f>SUM(J17:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="24">
+        <f>I22-E22+J22</f>
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2144</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3200</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="6">
+        <v>550</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2597</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2161</v>
+      </c>
+      <c r="E24" s="7">
+        <v>500</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="6">
+        <v>550</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="7">
+        <v>198</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2161</v>
+      </c>
+      <c r="E25" s="7">
+        <v>3100</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="6">
+        <v>571</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="7">
+        <v>485</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2161</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="6">
+        <v>573</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="7">
+        <v>59</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2168</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1100</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="6">
+        <v>600</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1052</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2168</v>
+      </c>
+      <c r="E28" s="7">
+        <v>200</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="6">
+        <v>630</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2308</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="6">
+        <v>702</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="7">
+        <v>672</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="6">
+        <v>702</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="7">
+        <v>50</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="6">
+        <v>717</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="7">
+        <v>299</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="6">
+        <v>652</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" s="7">
+        <v>368</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="6">
+        <v>914</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="7">
+        <v>363</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="9">
+        <f>SUM(E24:E34)</f>
+        <v>5900</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="9">
+        <f>SUM(I24:I34)</f>
+        <v>5854</v>
+      </c>
+      <c r="J35" s="9">
+        <f>SUM(J24:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="24">
+        <f>I35-E35+J35</f>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2165</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3150</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="6">
+        <v>704</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="7">
+        <v>24</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="25">
+        <v>190</v>
+      </c>
+      <c r="E37" s="27">
+        <f>1050+0.8</f>
+        <v>1050.8</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1261</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="7">
+        <v>729</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="25">
+        <v>688</v>
+      </c>
+      <c r="E38" s="27">
+        <v>700</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1293</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1660</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1293</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" s="7">
+        <v>588</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1456</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I40" s="7">
+        <v>585</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1546</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="7">
+        <v>826</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="9">
+        <f>SUM(E36:E42)</f>
+        <v>4900.8</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="9">
+        <f>SUM(I36:I42)</f>
+        <v>4412</v>
+      </c>
+      <c r="J43" s="9">
+        <f>SUM(J36:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="24">
+        <f>I43-E43+J43</f>
+        <v>-488.80000000000018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2165</v>
+      </c>
+      <c r="E44" s="7">
+        <v>2250</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="6">
+        <v>630</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="7">
+        <v>358</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="9">
+        <f t="shared" ref="E45:E47" si="0">SUM(D45)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" s="6">
+        <v>702</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1241</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="6">
+        <v>572</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" s="7">
+        <v>583</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="9">
+        <f>SUM(E44:E47)</f>
+        <v>2250</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="9">
+        <f>SUM(I44:I47)</f>
+        <v>2182</v>
+      </c>
+      <c r="J48" s="9">
+        <f>SUM(J44:J47)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="24">
+        <f>I48-E48+J48</f>
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2193</v>
+      </c>
+      <c r="E49" s="7">
+        <v>550</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" s="6">
+        <v>717</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" s="7">
+        <v>163</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="6">
+        <v>653</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="7">
+        <v>351</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G51" s="6">
+        <v>687</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I51" s="7">
+        <v>429</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="9">
+        <f>SUM(E49:E51)</f>
+        <v>550</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="9">
+        <f>SUM(I49:I51)</f>
+        <v>943</v>
+      </c>
+      <c r="J52" s="9">
+        <f>SUM(J49:J51)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="24">
+        <f>I52-E52+J52</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2193</v>
+      </c>
+      <c r="E53" s="7">
+        <v>550</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" s="6">
+        <v>760</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53" s="7">
+        <v>56</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" s="6">
+        <v>915</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I54" s="7">
+        <v>45</v>
+      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="9">
+        <f>SUM(E53:E55)</f>
+        <v>550</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="9">
+        <f>SUM(I53:I55)</f>
+        <v>101</v>
+      </c>
+      <c r="J56" s="9">
+        <f>SUM(J53:J55)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="24">
+        <f>I56-E56+J56</f>
+        <v>-449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2194</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1024</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" s="7">
+        <v>359</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2194</v>
+      </c>
+      <c r="E58" s="7">
+        <v>52.8</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1261</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="7">
+        <v>809</v>
+      </c>
+      <c r="J58" s="9"/>
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1375</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="7">
+        <v>500</v>
+      </c>
+      <c r="J59" s="9"/>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="9">
+        <f>SUM(E57:E60)</f>
+        <v>1852.8</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="9">
+        <f>SUM(I57:I60)</f>
+        <v>1668</v>
+      </c>
+      <c r="J61" s="9">
+        <f>SUM(J57:J60)</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="24">
+        <f>I61-E61+J61</f>
+        <v>-184.79999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="6">
+        <v>153</v>
+      </c>
+      <c r="E62" s="7">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G62" s="6">
+        <v>653</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" s="7">
+        <f>420+242</f>
+        <v>662</v>
+      </c>
+      <c r="J62" s="9"/>
+      <c r="K62" s="13"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G63" s="6">
+        <v>687</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I63" s="7">
+        <f>725+166+703</f>
+        <v>1594</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="13"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="13"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="9">
+        <f>SUM(E62:E64)</f>
+        <v>2100</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="9">
+        <f>SUM(I62:I64)</f>
+        <v>2256</v>
+      </c>
+      <c r="J65" s="9">
+        <f>SUM(J62:J64)</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="24">
+        <f>I65-E65+J65</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="6">
+        <v>155</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="6">
+        <v>760</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="7">
+        <f>302+424+229</f>
+        <v>955</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="24"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" s="6">
+        <v>805</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="7">
+        <v>116</v>
+      </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="24"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G68" s="6">
+        <v>837</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="7">
+        <v>38</v>
+      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="24"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="9">
+        <f>SUM(E66:E69)</f>
+        <v>1300</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="7">
+        <f>SUM(I66:I69)</f>
+        <v>1109</v>
+      </c>
+      <c r="J70" s="7">
+        <f>SUM(J66:J69)</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="24">
+        <f>I70-E70+J70</f>
+        <v>-191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" s="6">
+        <v>162</v>
+      </c>
+      <c r="E71" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G71" s="6">
+        <v>760</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I71" s="7">
+        <v>1475</v>
+      </c>
+      <c r="J71" s="9"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="6">
+        <v>805</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1455</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G73" s="6">
+        <v>819</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I73" s="7">
+        <v>827</v>
+      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" s="6">
+        <v>834</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I74" s="7">
+        <v>65</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G75" s="6">
+        <v>836</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I75" s="7">
+        <v>83</v>
+      </c>
+      <c r="J75" s="9"/>
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G76" s="6">
+        <v>913</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="7">
+        <v>689</v>
+      </c>
+      <c r="J76" s="9"/>
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" s="6">
+        <v>913</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I77" s="7">
+        <v>18</v>
+      </c>
+      <c r="J77" s="9"/>
+      <c r="K77" s="13"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" s="6">
+        <v>938</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" s="7">
+        <v>212</v>
+      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="13"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="9">
+        <f>SUM(E71:E79)</f>
+        <v>5000</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="9">
+        <f>SUM(I71:I79)</f>
+        <v>4824</v>
+      </c>
+      <c r="J80" s="9">
+        <f>SUM(J71:J79)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="24">
+        <f>I80-E80+J80</f>
+        <v>-176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" s="25">
+        <v>190</v>
+      </c>
+      <c r="E81" s="27">
+        <v>100</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="9">
+        <f>SUM(E81:E82)</f>
+        <v>100</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="9">
+        <f>SUM(I81:I82)</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="9">
+        <f>SUM(J81:J82)</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="24">
+        <f>I83-E83+J83</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="25">
+        <v>222</v>
+      </c>
+      <c r="E84" s="27">
+        <v>2500</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" s="6">
+        <v>938</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" s="7">
+        <v>926</v>
+      </c>
+      <c r="J84" s="9"/>
+      <c r="K84" s="13"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1024</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I85" s="7">
+        <f>1205+118</f>
+        <v>1323</v>
+      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="13"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1261</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I86" s="7">
+        <v>115</v>
+      </c>
+      <c r="J86" s="9"/>
+      <c r="K86" s="13"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="13"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="9">
+        <f>SUM(E84:E87)</f>
+        <v>2500</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="9">
+        <f>SUM(I84:I87)</f>
+        <v>2364</v>
+      </c>
+      <c r="J88" s="9">
+        <f>SUM(J84:J87)</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="24">
+        <f>I88-E88+J88</f>
+        <v>-136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="13"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" s="25">
+        <v>439</v>
+      </c>
+      <c r="E90" s="27">
+        <v>3000</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1384</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I90" s="7">
+        <v>390</v>
+      </c>
+      <c r="J90" s="9"/>
+      <c r="K90" s="13"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1429</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I91" s="7">
+        <v>1239</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="13"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1456</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I92" s="7">
+        <v>454</v>
+      </c>
+      <c r="J92" s="9"/>
+      <c r="K92" s="13"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G93" s="6">
+        <v>1456</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I93" s="7">
+        <v>241</v>
+      </c>
+      <c r="J93" s="9"/>
+      <c r="K93" s="13"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1468</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I94" s="7">
+        <v>86</v>
+      </c>
+      <c r="J94" s="9"/>
+      <c r="K94" s="13"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G95" s="6">
+        <v>1468</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I95" s="7">
+        <v>40</v>
+      </c>
+      <c r="J95" s="9"/>
+      <c r="K95" s="13"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1517</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I96" s="7">
+        <v>74</v>
+      </c>
+      <c r="J96" s="9"/>
+      <c r="K96" s="13"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G97" s="6">
+        <v>1546</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I97" s="7">
+        <v>17</v>
+      </c>
+      <c r="J97" s="9"/>
+      <c r="K97" s="13"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1555</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I98" s="7">
+        <v>19</v>
+      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="13"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="13"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="9">
+        <f>SUM(E90:E99)</f>
+        <v>3000</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="9">
+        <f>SUM(I90:I99)</f>
+        <v>2560</v>
+      </c>
+      <c r="J100" s="9">
+        <f>SUM(J90:J99)</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="24">
+        <f>I100-E100+J100</f>
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101" s="25">
+        <v>584</v>
+      </c>
+      <c r="E101" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1429</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I101" s="7">
+        <v>1295</v>
+      </c>
+      <c r="J101" s="9"/>
+      <c r="K101" s="13"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G102" s="6">
+        <v>1448</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" s="7">
+        <v>489</v>
+      </c>
+      <c r="J102" s="9"/>
+      <c r="K102" s="13"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1448</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I103" s="7">
+        <v>131</v>
+      </c>
+      <c r="J103" s="9"/>
+      <c r="K103" s="13"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1475</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I104" s="7">
+        <v>30</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="13"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="13"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="9">
+        <f>SUM(E101:E105)</f>
+        <v>3000</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="9">
+        <f>SUM(I101:I105)</f>
+        <v>1945</v>
+      </c>
+      <c r="J106" s="9">
+        <f>SUM(J101:J105)</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="24">
+        <f>I106-E106+J106</f>
+        <v>-1055</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" s="25">
+        <v>658</v>
+      </c>
+      <c r="E107" s="27">
+        <v>2000</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1522</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I107" s="7">
+        <v>752</v>
+      </c>
+      <c r="J107" s="9"/>
+      <c r="K107" s="13"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1525</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I108" s="7">
+        <v>1191</v>
+      </c>
+      <c r="J108" s="9"/>
+      <c r="K108" s="13"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="13"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="9">
+        <f>SUBTOTAL(9,E107:E109)</f>
+        <v>2000</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="9">
+        <f>SUBTOTAL(9,I107:I109)</f>
+        <v>1943</v>
+      </c>
+      <c r="J110" s="9">
+        <f>SUBTOTAL(9,J107:J109)</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="24">
+        <f>I110-E110+J110</f>
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="25">
+        <v>658</v>
+      </c>
+      <c r="E111" s="27">
+        <v>2000</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G111" s="6">
+        <v>1517</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I111" s="7">
+        <v>1013</v>
+      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="13"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G112" s="6">
+        <v>1522</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I112" s="7">
+        <f>774+111</f>
+        <v>885</v>
+      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="13"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="13"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="9">
+        <f>SUBTOTAL(9,E111:E113)</f>
+        <v>2000</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="9">
+        <f>SUBTOTAL(9,I111:I113)</f>
+        <v>1898</v>
+      </c>
+      <c r="J114" s="9">
+        <f>SUBTOTAL(9,J111:J113)</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="24">
+        <f>I114-E114+J114</f>
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115" s="6">
+        <v>744</v>
+      </c>
+      <c r="E115" s="7">
+        <v>725.76</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G115" s="6">
+        <v>1601</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I115" s="7">
+        <v>4</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="13"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G116" s="6">
+        <v>1657</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I116" s="7">
+        <v>520</v>
+      </c>
+      <c r="J116" s="9"/>
+      <c r="K116" s="13"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G117" s="6">
+        <v>1686</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I117" s="7">
+        <v>149</v>
+      </c>
+      <c r="J117" s="9"/>
+      <c r="K117" s="13"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="13"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="13"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="9">
+        <f>SUBTOTAL(9,E115:E119)</f>
+        <v>725.76</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="9">
+        <f>SUBTOTAL(9,I115:I119)</f>
+        <v>673</v>
+      </c>
+      <c r="J120" s="9">
+        <f>SUBTOTAL(9,J115:J119)</f>
+        <v>0</v>
+      </c>
+      <c r="K120" s="13">
+        <f>I120-E120+J120</f>
+        <v>-52.759999999999991</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D121" s="6">
+        <v>748</v>
+      </c>
+      <c r="E121" s="7">
+        <v>1550</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G121" s="6">
+        <v>1631</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I121" s="7">
+        <v>468</v>
+      </c>
+      <c r="J121" s="9"/>
+      <c r="K121" s="13"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G122" s="6">
+        <v>1658</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I122" s="7">
+        <v>766</v>
+      </c>
+      <c r="J122" s="9"/>
+      <c r="K122" s="13"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G123" s="6">
+        <v>1661</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I123" s="7">
+        <v>75</v>
+      </c>
+      <c r="J123" s="9"/>
+      <c r="K123" s="13"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G124" s="6">
+        <v>1661</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I124" s="7">
+        <v>71</v>
+      </c>
+      <c r="J124" s="9"/>
+      <c r="K124" s="13"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="13"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="9">
+        <f>SUBTOTAL(9,E121:E125)</f>
+        <v>1550</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="9">
+        <f>SUBTOTAL(9,I121:I125)</f>
+        <v>1380</v>
+      </c>
+      <c r="J126" s="9">
+        <f>SUBTOTAL(9,J121:J125)</f>
+        <v>0</v>
+      </c>
+      <c r="K126" s="13">
+        <f>I126-E126+J126</f>
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127" s="6">
+        <v>763</v>
+      </c>
+      <c r="E127" s="7">
+        <v>1300</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G127" s="6">
+        <v>1686</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I127" s="7">
+        <v>489</v>
+      </c>
+      <c r="J127" s="9"/>
+      <c r="K127" s="13"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G128" s="6">
+        <v>1705</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I128" s="7">
+        <v>6</v>
+      </c>
+      <c r="J128" s="9"/>
+      <c r="K128" s="13"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G129" s="6">
+        <v>1748</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I129" s="7">
+        <v>848</v>
+      </c>
+      <c r="J129" s="9"/>
+      <c r="K129" s="13"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="13"/>
+    </row>
+    <row r="131" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="9">
+        <f>SUBTOTAL(9,E127:E130)</f>
+        <v>1300</v>
+      </c>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="9">
+        <f>SUBTOTAL(9,I127:I130)</f>
+        <v>1343</v>
+      </c>
+      <c r="J131" s="9">
+        <f>SUBTOTAL(9,J127:J130)</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="24">
+        <f>I131-E131+J131</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="7">
+        <f>E131+E126+E120+E114+E110++E106+E100+E88+E83+E80+E70+E65+E61+E56+E52+E48+E43+E35+E22+E16</f>
+        <v>45861.36</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="9">
+        <f>I131+I126+I120+I114++I110+I106+I100+I88+I80+I70+I65+I61+I56+I52+I48+I43+I35+I22+I16</f>
+        <v>42182</v>
+      </c>
+      <c r="J132" s="9"/>
+      <c r="K132" s="13">
+        <f>E132-I132</f>
+        <v>3679.3600000000006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I134" s="14"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I136" s="14"/>
+      <c r="K136" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:K9"/>
+  <mergeCells count="4">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q525"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C460" sqref="C460"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O295" sqref="O295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
